--- a/Downstream_R_Code/Extra_Analysis/Ancestry_Analysis/Pvalue_Table_Ancestry.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Ancestry_Analysis/Pvalue_Table_Ancestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft18\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Ancestry_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Ancestry_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{58004337-353E-49AC-8870-27A94467D011}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F2CF7-8D55-4E2B-9173-E17EB225DE1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="5085" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="1200" yWindow="1470" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pvalue_Table_Ancestry" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>HPV.type</t>
   </si>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,10 +1156,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I6">
-    <sortCondition ref="A2"/>
-  </sortState>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Downstream_R_Code/Extra_Analysis/Ancestry_Analysis/Pvalue_Table_Ancestry.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Ancestry_Analysis/Pvalue_Table_Ancestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Ancestry_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_PLOS_ONE_Draft24\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Ancestry_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F2CF7-8D55-4E2B-9173-E17EB225DE1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81F853-4391-4C9E-892C-2D28C1CC0623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1470" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="600" windowWidth="27165" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pvalue_Table_Ancestry" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF33CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,7 +614,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -655,6 +662,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -966,7 +978,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.97671147080773102</v>
+        <v>0.99231324419116695</v>
       </c>
       <c r="D2" s="2">
-        <v>0.97671147080773102</v>
+        <v>0.99231324419116695</v>
       </c>
       <c r="E2" s="3">
         <v>-2.5000000000000001E-2</v>
@@ -1033,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0.76741226294742704</v>
+        <v>0.77055369341804303</v>
       </c>
       <c r="I2" s="2">
-        <v>0.95926532868428405</v>
+        <v>0.96319211677255401</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>0.34180031336976102</v>
+        <v>0.44741899959831699</v>
       </c>
       <c r="D3" s="2">
-        <v>0.42725039171220203</v>
+        <v>0.55927374949789599</v>
       </c>
       <c r="E3" s="3">
         <v>-0.125</v>
@@ -1062,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0.159949811223634</v>
+        <v>0.19773585841432301</v>
       </c>
       <c r="I3" s="2">
-        <v>0.266583018706057</v>
+        <v>0.39788977881972598</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,10 +1088,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.25871216475227299</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.42725039171220203</v>
+        <v>1.36668244664735E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>6.8334122332367603E-2</v>
       </c>
       <c r="E4" s="3">
         <v>0.125</v>
@@ -1091,10 +1103,10 @@
         <v>0.952380952380952</v>
       </c>
       <c r="H4" s="2">
-        <v>0.14975694060877801</v>
+        <v>4.04900912088582E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.266583018706057</v>
+        <v>0.20245045604429099</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,10 +1117,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>0.26922879341087702</v>
+        <v>0.24968801500461801</v>
       </c>
       <c r="D5" s="5">
-        <v>0.42725039171220203</v>
+        <v>0.41614669167436402</v>
       </c>
       <c r="E5" s="6">
         <v>2.5000000000000001E-2</v>
@@ -1120,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>0.96193737235904198</v>
+        <v>0.96838092421046296</v>
       </c>
       <c r="I5" s="5">
-        <v>0.96193737235904198</v>
+        <v>0.96838092421046296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1134,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>8.05674910296739E-3</v>
+        <v>2.9501308752042699E-2</v>
       </c>
       <c r="D6" s="10">
-        <v>4.0283745514837002E-2</v>
+        <v>7.3753271880106705E-2</v>
       </c>
       <c r="E6" s="4">
         <v>-0.05</v>
@@ -1149,14 +1161,17 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0.12947019562645501</v>
+        <v>0.23873386729183499</v>
       </c>
       <c r="I6" s="2">
-        <v>0.266583018706057</v>
+        <v>0.39788977881972598</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I6">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>